--- a/medicine/Enfance/Marilyn_Sachs/Marilyn_Sachs.xlsx
+++ b/medicine/Enfance/Marilyn_Sachs/Marilyn_Sachs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marilyn Sachs (née Stickle, 1927-2016) est une romancière américaine en littérature d'enfance et de jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à New York, elle fait des études de bibliothécaire à l'université Columbia. Pendant ses études, elle travaille comme bibliothécaire pour les enfants à la Bibliothèque publique de Brooklyn[1].
-Elle écrit son premier roman Amy Moves In, mais ne parvient pas à le faire publier. Elle déménage avec son mari, le sculpteur Morris Sachs, et leurs enfants en Californie. Elle trouve un emploi à la Bibliothèque publique de San Francisco[1].
-Elle manifeste contre la guerre des États-Unis au Vietnam. Les bénéfices du livre The Big Book for Peace qu'elle codirige en 1991 sont reversés à des associations pacifistes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à New York, elle fait des études de bibliothécaire à l'université Columbia. Pendant ses études, elle travaille comme bibliothécaire pour les enfants à la Bibliothèque publique de Brooklyn.
+Elle écrit son premier roman Amy Moves In, mais ne parvient pas à le faire publier. Elle déménage avec son mari, le sculpteur Morris Sachs, et leurs enfants en Californie. Elle trouve un emploi à la Bibliothèque publique de San Francisco.
+Elle manifeste contre la guerre des États-Unis au Vietnam. Les bénéfices du livre The Big Book for Peace qu'elle codirige en 1991 sont reversés à des associations pacifistes.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La vérité sur Marylou (The truth about Mary Rose),traduit de l'américain par Simon Baril,1973
 Du Soleil sur la joue (A Pocket Full of Seeds, 1973), traduit de l'américain par Rose-Marie Vassallo, illustrations de François Davot , Flammarion Castor Poche no 7, 1980.
@@ -583,13 +599,15 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1968 – Veronica Ganz – American Library Association Notable Book
-1972 – The Bears' House – National Book Award finalist[1]
-1973 – A Pocket Full of Seeds – New York Times Outstanding Book of the Year[1]
-1991 – The Big Book for Peace (codirection) – Jane Addams Children's Book Award[3],[4]
-American Jewish Library Award[5]</t>
+1972 – The Bears' House – National Book Award finalist
+1973 – A Pocket Full of Seeds – New York Times Outstanding Book of the Year
+1991 – The Big Book for Peace (codirection) – Jane Addams Children's Book Award,
+American Jewish Library Award</t>
         </is>
       </c>
     </row>
